--- a/sources/ModeloNEOEdited.xlsx
+++ b/sources/ModeloNEOEdited.xlsx
@@ -31555,38 +31555,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MICHELE CRISTINA SOARES BACHESQUE</t>
+          <t>MAYSA NICOLA RODI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>027/035</t>
+          <t>024/033</t>
         </is>
       </c>
       <c r="D2" s="337" t="n">
-        <v>45184</v>
+        <v>45112</v>
       </c>
       <c r="E2" s="337" t="n">
-        <v>45139</v>
+        <v>45110</v>
       </c>
       <c r="F2" s="337" t="n">
-        <v>45140</v>
+        <v>45111</v>
       </c>
       <c r="G2" t="n">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="H2" t="n">
-        <v>684.66</v>
+        <v>1255.41</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3884.66</v>
+        <v>5555.41</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -31610,7 +31610,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>5555.41</v>
       </c>
       <c r="S2" s="163">
         <f>DATE(YEAR(U2),MONTH(U2),1)</f>
@@ -31643,38 +31643,38 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RONALDO DA NOBREGA DIAS</t>
+          <t>MARLI APARECIDA ROMERO PINHEIRO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001/003</t>
+          <t>010/023</t>
         </is>
       </c>
       <c r="D3" s="337" t="n">
-        <v>45184</v>
+        <v>45112</v>
       </c>
       <c r="E3" s="337" t="n">
-        <v>45140</v>
+        <v>45110</v>
       </c>
       <c r="F3" s="337" t="n">
-        <v>45140</v>
+        <v>45111</v>
       </c>
       <c r="G3" t="n">
-        <v>12000</v>
+        <v>22886.85</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>513.0600000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12000</v>
+        <v>23399.91</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -31698,71 +31698,47 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T3" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U3" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V3" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>23399.91</v>
+      </c>
+      <c r="S3" s="163" t="n"/>
+      <c r="T3" s="163" t="n"/>
+      <c r="U3" s="163" t="n"/>
+      <c r="V3" s="163" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FLAVIA PUERTAS FRANCO GARCIA</t>
+          <t>MICHELE CRISTINA SOARES BACHESQUE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>022/030</t>
+          <t>026/035</t>
         </is>
       </c>
       <c r="D4" s="337" t="n">
-        <v>45184</v>
+        <v>45132</v>
       </c>
       <c r="E4" s="337" t="n">
-        <v>45141</v>
+        <v>45111</v>
       </c>
       <c r="F4" s="337" t="n">
-        <v>45142</v>
+        <v>45112</v>
       </c>
       <c r="G4" t="n">
-        <v>2686.84</v>
+        <v>3200</v>
       </c>
       <c r="H4" t="n">
-        <v>739.21</v>
+        <v>651.92</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3426.05</v>
+        <v>3851.92</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31786,71 +31762,47 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T4" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U4" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V4" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>3851.92</v>
+      </c>
+      <c r="S4" s="163" t="n"/>
+      <c r="T4" s="163" t="n"/>
+      <c r="U4" s="163" t="n"/>
+      <c r="V4" s="163" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MARLI APARECIDA ROMERO PINHEIRO</t>
+          <t>FLAVIA PUERTAS FRANCO GARCIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>011/023</t>
+          <t>021/030</t>
         </is>
       </c>
       <c r="D5" s="337" t="n">
-        <v>45184</v>
+        <v>45112</v>
       </c>
       <c r="E5" s="337" t="n">
-        <v>45141</v>
+        <v>45112</v>
       </c>
       <c r="F5" s="337" t="n">
-        <v>45142</v>
+        <v>45113</v>
       </c>
       <c r="G5" t="n">
-        <v>22886.85</v>
+        <v>2686.84</v>
       </c>
       <c r="H5" t="n">
-        <v>711.96</v>
+        <v>710.33</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>23598.81</v>
+        <v>3397.17</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -31874,71 +31826,47 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T5" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U5" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V5" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>3397.17</v>
+      </c>
+      <c r="S5" s="163" t="n"/>
+      <c r="T5" s="163" t="n"/>
+      <c r="U5" s="163" t="n"/>
+      <c r="V5" s="163" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HON FAI NG</t>
+          <t>MARCILIO ALBERTO DE FARIAS PIRES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>026/034</t>
+          <t>026/035</t>
         </is>
       </c>
       <c r="D6" s="337" t="n">
-        <v>45184</v>
+        <v>45117</v>
       </c>
       <c r="E6" s="337" t="n">
-        <v>45145</v>
+        <v>45114</v>
       </c>
       <c r="F6" s="337" t="n">
-        <v>45146</v>
+        <v>45117</v>
       </c>
       <c r="G6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>611.17</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5000</v>
+        <v>3611.17</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -31962,71 +31890,47 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T6" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U6" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V6" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>3611.17</v>
+      </c>
+      <c r="S6" s="163" t="n"/>
+      <c r="T6" s="163" t="n"/>
+      <c r="U6" s="163" t="n"/>
+      <c r="V6" s="163" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MARCILIO ALBERTO DE FARIAS PIRES</t>
+          <t>MONICA FLORENCIO MILANI DA CRUZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>027/035</t>
+          <t>022/031</t>
         </is>
       </c>
       <c r="D7" s="337" t="n">
-        <v>45184</v>
+        <v>45117</v>
       </c>
       <c r="E7" s="337" t="n">
-        <v>45145</v>
+        <v>45117</v>
       </c>
       <c r="F7" s="337" t="n">
-        <v>45146</v>
+        <v>45118</v>
       </c>
       <c r="G7" t="n">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="H7" t="n">
-        <v>641.87</v>
+        <v>766.25</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3641.87</v>
+        <v>4966.25</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -32050,71 +31954,47 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T7" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U7" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V7" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>4966.25</v>
+      </c>
+      <c r="S7" s="163" t="n"/>
+      <c r="T7" s="163" t="n"/>
+      <c r="U7" s="163" t="n"/>
+      <c r="V7" s="163" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MONICA FLORENCIO MILANI DA CRUZ</t>
+          <t>DANILO TROSS LEITE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>023/031</t>
+          <t>028/037</t>
         </is>
       </c>
       <c r="D8" s="337" t="n">
-        <v>45184</v>
+        <v>45117</v>
       </c>
       <c r="E8" s="337" t="n">
-        <v>45148</v>
+        <v>45118</v>
       </c>
       <c r="F8" s="337" t="n">
-        <v>45149</v>
+        <v>45119</v>
       </c>
       <c r="G8" t="n">
-        <v>4200</v>
+        <v>2750</v>
       </c>
       <c r="H8" t="n">
-        <v>811.47</v>
+        <v>757.63</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5011.47</v>
+        <v>3507.63</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -32123,13 +32003,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>70.15000000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3.01</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -32138,71 +32018,47 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T8" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U8" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V8" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>3578.95</v>
+      </c>
+      <c r="S8" s="163" t="n"/>
+      <c r="T8" s="163" t="n"/>
+      <c r="U8" s="163" t="n"/>
+      <c r="V8" s="163" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOMERO MONTANDON</t>
+          <t>ELIANE PEREIRA DE FREITAS REBELO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>024/032</t>
+          <t>024/033</t>
         </is>
       </c>
       <c r="D9" s="337" t="n">
-        <v>45184</v>
+        <v>45122</v>
       </c>
       <c r="E9" s="337" t="n">
-        <v>45148</v>
+        <v>45124</v>
       </c>
       <c r="F9" s="337" t="n">
-        <v>45149</v>
+        <v>45125</v>
       </c>
       <c r="G9" t="n">
-        <v>3494.06</v>
+        <v>8790</v>
       </c>
       <c r="H9" t="n">
-        <v>1003.2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4497.26</v>
+        <v>8790</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -32217,7 +32073,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -32226,71 +32082,47 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T9" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U9" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V9" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>8790</v>
+      </c>
+      <c r="S9" s="163" t="n"/>
+      <c r="T9" s="163" t="n"/>
+      <c r="U9" s="163" t="n"/>
+      <c r="V9" s="163" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MARIO MARCOS QUITINO DA SILVA</t>
+          <t>RONALDO DA NOBREGA DIAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>030/040</t>
+          <t>030/039</t>
         </is>
       </c>
       <c r="D10" s="337" t="n">
-        <v>45184</v>
+        <v>45122</v>
       </c>
       <c r="E10" s="337" t="n">
-        <v>45148</v>
+        <v>45124</v>
       </c>
       <c r="F10" s="337" t="n">
-        <v>45149</v>
+        <v>45125</v>
       </c>
       <c r="G10" t="n">
-        <v>25517.01</v>
+        <v>2000</v>
       </c>
       <c r="H10" t="n">
-        <v>8312.210000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33829.22</v>
+        <v>2000</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -32305,7 +32137,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>20.28</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -32314,71 +32146,47 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T10" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U10" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V10" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="S10" s="163" t="n"/>
+      <c r="T10" s="163" t="n"/>
+      <c r="U10" s="163" t="n"/>
+      <c r="V10" s="163" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RONALDO DA NOBREGA DIAS</t>
+          <t>LUIS CARLOS COLICCHIO RAYMUNDO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>002/003</t>
+          <t>019/024</t>
         </is>
       </c>
       <c r="D11" s="337" t="n">
-        <v>45184</v>
+        <v>45122</v>
       </c>
       <c r="E11" s="337" t="n">
-        <v>45152</v>
+        <v>45124</v>
       </c>
       <c r="F11" s="337" t="n">
-        <v>45153</v>
+        <v>45125</v>
       </c>
       <c r="G11" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>964.26</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>12000</v>
+        <v>4464.26</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -32402,71 +32210,47 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T11" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U11" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V11" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>4464.26</v>
+      </c>
+      <c r="S11" s="163" t="n"/>
+      <c r="T11" s="163" t="n"/>
+      <c r="U11" s="163" t="n"/>
+      <c r="V11" s="163" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ELIANE PEREIRA DE FREITAS REBELO</t>
+          <t>HOMERO MONTANDON</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>025/033</t>
+          <t>023/032</t>
         </is>
       </c>
       <c r="D12" s="337" t="n">
-        <v>45184</v>
+        <v>45117</v>
       </c>
       <c r="E12" s="337" t="n">
-        <v>45153</v>
+        <v>45125</v>
       </c>
       <c r="F12" s="337" t="n">
-        <v>45154</v>
+        <v>45126</v>
       </c>
       <c r="G12" t="n">
-        <v>8790</v>
+        <v>3494.06</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>962.62</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8790</v>
+        <v>4456.68</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -32475,10 +32259,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>89.13</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>11.92</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -32490,62 +32274,38 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T12" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U12" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V12" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>4557.73</v>
+      </c>
+      <c r="S12" s="163" t="n"/>
+      <c r="T12" s="163" t="n"/>
+      <c r="U12" s="163" t="n"/>
+      <c r="V12" s="163" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RONALDO DA NOBREGA DIAS</t>
+          <t>JULIO CESAR MICOLI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>031/039</t>
+          <t>002/004</t>
         </is>
       </c>
       <c r="D13" s="337" t="n">
-        <v>45184</v>
+        <v>45117</v>
       </c>
       <c r="E13" s="337" t="n">
-        <v>45153</v>
+        <v>45127</v>
       </c>
       <c r="F13" s="337" t="n">
-        <v>45154</v>
+        <v>45127</v>
       </c>
       <c r="G13" t="n">
-        <v>2000</v>
+        <v>20765.73</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -32554,7 +32314,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2000</v>
+        <v>20765.73</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -32578,71 +32338,47 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T13" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U13" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V13" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>20765.73</v>
+      </c>
+      <c r="S13" s="163" t="n"/>
+      <c r="T13" s="163" t="n"/>
+      <c r="U13" s="163" t="n"/>
+      <c r="V13" s="163" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LUIS CARLOS COLICCHIO RAYMUNDO</t>
+          <t>HON FAI NG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>020/024</t>
+          <t>025/034</t>
         </is>
       </c>
       <c r="D14" s="337" t="n">
-        <v>45184</v>
+        <v>45132</v>
       </c>
       <c r="E14" s="337" t="n">
-        <v>45153</v>
+        <v>45127</v>
       </c>
       <c r="F14" s="337" t="n">
-        <v>45154</v>
+        <v>45128</v>
       </c>
       <c r="G14" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="H14" t="n">
-        <v>1002.2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4502.2</v>
+        <v>5000</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -32666,71 +32402,47 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T14" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U14" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V14" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="S14" s="163" t="n"/>
+      <c r="T14" s="163" t="n"/>
+      <c r="U14" s="163" t="n"/>
+      <c r="V14" s="163" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MARCILIO ALBERTO DE FARIAS PIRES</t>
+          <t>FELIPE ISSAMU KITADANI ODAGUIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002/004</t>
+          <t>028/037</t>
         </is>
       </c>
       <c r="D15" s="337" t="n">
-        <v>45184</v>
+        <v>45127</v>
       </c>
       <c r="E15" s="337" t="n">
-        <v>45154</v>
+        <v>45127</v>
       </c>
       <c r="F15" s="337" t="n">
-        <v>45155</v>
+        <v>45128</v>
       </c>
       <c r="G15" t="n">
-        <v>1425.83</v>
+        <v>5000</v>
       </c>
       <c r="H15" t="n">
-        <v>17.87</v>
+        <v>1197.31</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1443.7</v>
+        <v>6197.31</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32754,71 +32466,47 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T15" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U15" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V15" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>6197.31</v>
+      </c>
+      <c r="S15" s="163" t="n"/>
+      <c r="T15" s="163" t="n"/>
+      <c r="U15" s="163" t="n"/>
+      <c r="V15" s="163" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FABIANA MOREIRA DOS SANTOS</t>
+          <t>ALEXANDRE TERRA SIMAO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>028/036</t>
+          <t>028/033</t>
         </is>
       </c>
       <c r="D16" s="337" t="n">
-        <v>45184</v>
+        <v>45134</v>
       </c>
       <c r="E16" s="337" t="n">
-        <v>45154</v>
+        <v>45128</v>
       </c>
       <c r="F16" s="337" t="n">
-        <v>45155</v>
+        <v>45131</v>
       </c>
       <c r="G16" t="n">
-        <v>24350</v>
+        <v>5507.78</v>
       </c>
       <c r="H16" t="n">
-        <v>6972.46</v>
+        <v>1728.28</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31322.46</v>
+        <v>7236.06</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -32842,71 +32530,47 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T16" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U16" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V16" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>7236.06</v>
+      </c>
+      <c r="S16" s="163" t="n"/>
+      <c r="T16" s="163" t="n"/>
+      <c r="U16" s="163" t="n"/>
+      <c r="V16" s="163" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FELIPE ISSAMU KITADANI ODAGUIL</t>
+          <t>MARCILIO ALBERTO DE FARIAS PIRES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>029/037</t>
+          <t>001/004</t>
         </is>
       </c>
       <c r="D17" s="337" t="n">
-        <v>45184</v>
+        <v>45131</v>
       </c>
       <c r="E17" s="337" t="n">
-        <v>45159</v>
+        <v>45131</v>
       </c>
       <c r="F17" s="337" t="n">
-        <v>45160</v>
+        <v>45132</v>
       </c>
       <c r="G17" t="n">
-        <v>5000</v>
+        <v>1805.58</v>
       </c>
       <c r="H17" t="n">
-        <v>1249.99</v>
+        <v>7.22</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6249.99</v>
+        <v>1812.8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -32930,71 +32594,47 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T17" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U17" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V17" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>1812.8</v>
+      </c>
+      <c r="S17" s="163" t="n"/>
+      <c r="T17" s="163" t="n"/>
+      <c r="U17" s="163" t="n"/>
+      <c r="V17" s="163" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DANILO TROSS LEITE</t>
+          <t>MARCILIO ALBERTO DE FARIAS PIRES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>029/037</t>
+          <t>002/004</t>
         </is>
       </c>
       <c r="D18" s="337" t="n">
-        <v>45184</v>
+        <v>45162</v>
       </c>
       <c r="E18" s="337" t="n">
-        <v>45160</v>
+        <v>45131</v>
       </c>
       <c r="F18" s="337" t="n">
-        <v>45161</v>
+        <v>45132</v>
       </c>
       <c r="G18" t="n">
-        <v>2750</v>
+        <v>379.75</v>
       </c>
       <c r="H18" t="n">
-        <v>789.5700000000001</v>
+        <v>1.52</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3539.57</v>
+        <v>381.27</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -33006,7 +32646,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>82.77</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -33018,71 +32658,47 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T18" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U18" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V18" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>381.27</v>
+      </c>
+      <c r="S18" s="163" t="n"/>
+      <c r="T18" s="163" t="n"/>
+      <c r="U18" s="163" t="n"/>
+      <c r="V18" s="163" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JULIO CESAR MICOLI</t>
+          <t>FABIANA MOREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>003/004</t>
+          <t>027/036</t>
         </is>
       </c>
       <c r="D19" s="337" t="n">
-        <v>45184</v>
+        <v>45137</v>
       </c>
       <c r="E19" s="337" t="n">
-        <v>45162</v>
+        <v>45131</v>
       </c>
       <c r="F19" s="337" t="n">
-        <v>45162</v>
+        <v>45132</v>
       </c>
       <c r="G19" t="n">
-        <v>20765.73</v>
+        <v>24350</v>
       </c>
       <c r="H19" t="n">
-        <v>260.28</v>
+        <v>6708.46</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>21026.01</v>
+        <v>31058.46</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -33097,7 +32713,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>260.28</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -33106,36 +32722,12 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T19" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U19" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V19" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>31058.46</v>
+      </c>
+      <c r="S19" s="163" t="n"/>
+      <c r="T19" s="163" t="n"/>
+      <c r="U19" s="163" t="n"/>
+      <c r="V19" s="163" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -33148,29 +32740,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>028/036</t>
+          <t>027/036</t>
         </is>
       </c>
       <c r="D20" s="337" t="n">
-        <v>45184</v>
+        <v>45135</v>
       </c>
       <c r="E20" s="337" t="n">
-        <v>45166</v>
+        <v>45135</v>
       </c>
       <c r="F20" s="337" t="n">
-        <v>45167</v>
+        <v>45138</v>
       </c>
       <c r="G20" t="n">
         <v>4089</v>
       </c>
       <c r="H20" t="n">
-        <v>1238.71</v>
+        <v>1193.81</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5327.71</v>
+        <v>5282.81</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -33194,71 +32786,47 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T20" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U20" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V20" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>5282.81</v>
+      </c>
+      <c r="S20" s="163" t="n"/>
+      <c r="T20" s="163" t="n"/>
+      <c r="U20" s="163" t="n"/>
+      <c r="V20" s="163" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ALEXANDRE TERRA SIMAO</t>
+          <t>MARIO MARCOS QUITINO DA SILVA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>029/033</t>
+          <t>032/040</t>
         </is>
       </c>
       <c r="D21" s="337" t="n">
-        <v>45184</v>
+        <v>45117</v>
       </c>
       <c r="E21" s="337" t="n">
-        <v>45167</v>
+        <v>45135</v>
       </c>
       <c r="F21" s="337" t="n">
-        <v>45168</v>
+        <v>45138</v>
       </c>
       <c r="G21" t="n">
-        <v>5507.78</v>
+        <v>25517.01</v>
       </c>
       <c r="H21" t="n">
-        <v>1789.79</v>
+        <v>8006.97</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7297.57</v>
+        <v>33523.98</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -33267,13 +32835,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>145.95</v>
+        <v>670.48</v>
       </c>
       <c r="N21" t="n">
-        <v>4.86</v>
+        <v>201.06</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -33282,36 +32850,12 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="163">
-        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
-        <v/>
-      </c>
-      <c r="T21" s="163">
-        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
-        <v/>
-      </c>
-      <c r="U21" s="163">
-        <f>D2</f>
-        <v/>
-      </c>
-      <c r="V21" s="163">
-        <f>E2</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>U2-V2</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
-        <v/>
-      </c>
+        <v>34395.51</v>
+      </c>
+      <c r="S21" s="163" t="n"/>
+      <c r="T21" s="163" t="n"/>
+      <c r="U21" s="163" t="n"/>
+      <c r="V21" s="163" t="n"/>
     </row>
     <row r="22"/>
     <row r="23"/>

--- a/sources/ModeloNEOEdited.xlsx
+++ b/sources/ModeloNEOEdited.xlsx
@@ -3268,46 +3268,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>8</col>
-      <colOff>247650</colOff>
-      <row>0</row>
-      <rowOff>66675</rowOff>
-    </from>
-    <ext cx="1466850" cy="409575"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="image1.png"/>
-        <cNvPicPr preferRelativeResize="0"/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="13916025" y="66675"/>
-          <a:ext cx="1466850" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData fLocksWithSheet="0"/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -3375,45 +3335,10 @@
     </graphicFrame>
     <clientData fLocksWithSheet="0"/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>428625</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1562100" cy="400050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="image2.png"/>
-        <cNvPicPr preferRelativeResize="0"/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="12011025" y="0"/>
-          <a:ext cx="1562100" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData fLocksWithSheet="0"/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
@@ -3442,42 +3367,6 @@
     </graphicFrame>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>1184276</colOff>
-      <row>0</row>
-      <rowOff>53940</rowOff>
-    </from>
-    <ext cx="1473140" cy="414055"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Imagem 2"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="10118726" y="53940"/>
-          <a:ext cx="1473140" cy="414055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -8911,7 +8800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9880,7 +9769,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" paperSize="9" scale="57"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31700,10 +31588,34 @@
       <c r="R3" t="n">
         <v>23399.91</v>
       </c>
-      <c r="S3" s="163" t="n"/>
-      <c r="T3" s="163" t="n"/>
-      <c r="U3" s="163" t="n"/>
-      <c r="V3" s="163" t="n"/>
+      <c r="S3" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T3" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U3" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V3" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -31764,10 +31676,34 @@
       <c r="R4" t="n">
         <v>3851.92</v>
       </c>
-      <c r="S4" s="163" t="n"/>
-      <c r="T4" s="163" t="n"/>
-      <c r="U4" s="163" t="n"/>
-      <c r="V4" s="163" t="n"/>
+      <c r="S4" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T4" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U4" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V4" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -31828,10 +31764,34 @@
       <c r="R5" t="n">
         <v>3397.17</v>
       </c>
-      <c r="S5" s="163" t="n"/>
-      <c r="T5" s="163" t="n"/>
-      <c r="U5" s="163" t="n"/>
-      <c r="V5" s="163" t="n"/>
+      <c r="S5" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T5" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U5" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V5" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -31892,10 +31852,34 @@
       <c r="R6" t="n">
         <v>3611.17</v>
       </c>
-      <c r="S6" s="163" t="n"/>
-      <c r="T6" s="163" t="n"/>
-      <c r="U6" s="163" t="n"/>
-      <c r="V6" s="163" t="n"/>
+      <c r="S6" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T6" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U6" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V6" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -31956,10 +31940,34 @@
       <c r="R7" t="n">
         <v>4966.25</v>
       </c>
-      <c r="S7" s="163" t="n"/>
-      <c r="T7" s="163" t="n"/>
-      <c r="U7" s="163" t="n"/>
-      <c r="V7" s="163" t="n"/>
+      <c r="S7" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T7" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U7" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V7" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -32020,10 +32028,34 @@
       <c r="R8" t="n">
         <v>3578.95</v>
       </c>
-      <c r="S8" s="163" t="n"/>
-      <c r="T8" s="163" t="n"/>
-      <c r="U8" s="163" t="n"/>
-      <c r="V8" s="163" t="n"/>
+      <c r="S8" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T8" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U8" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V8" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -32084,10 +32116,34 @@
       <c r="R9" t="n">
         <v>8790</v>
       </c>
-      <c r="S9" s="163" t="n"/>
-      <c r="T9" s="163" t="n"/>
-      <c r="U9" s="163" t="n"/>
-      <c r="V9" s="163" t="n"/>
+      <c r="S9" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T9" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U9" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V9" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -32148,10 +32204,34 @@
       <c r="R10" t="n">
         <v>2000</v>
       </c>
-      <c r="S10" s="163" t="n"/>
-      <c r="T10" s="163" t="n"/>
-      <c r="U10" s="163" t="n"/>
-      <c r="V10" s="163" t="n"/>
+      <c r="S10" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T10" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U10" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V10" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -32212,10 +32292,34 @@
       <c r="R11" t="n">
         <v>4464.26</v>
       </c>
-      <c r="S11" s="163" t="n"/>
-      <c r="T11" s="163" t="n"/>
-      <c r="U11" s="163" t="n"/>
-      <c r="V11" s="163" t="n"/>
+      <c r="S11" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T11" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U11" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V11" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -32276,10 +32380,34 @@
       <c r="R12" t="n">
         <v>4557.73</v>
       </c>
-      <c r="S12" s="163" t="n"/>
-      <c r="T12" s="163" t="n"/>
-      <c r="U12" s="163" t="n"/>
-      <c r="V12" s="163" t="n"/>
+      <c r="S12" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T12" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U12" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V12" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -32340,10 +32468,34 @@
       <c r="R13" t="n">
         <v>20765.73</v>
       </c>
-      <c r="S13" s="163" t="n"/>
-      <c r="T13" s="163" t="n"/>
-      <c r="U13" s="163" t="n"/>
-      <c r="V13" s="163" t="n"/>
+      <c r="S13" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T13" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U13" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V13" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -32404,10 +32556,34 @@
       <c r="R14" t="n">
         <v>5000</v>
       </c>
-      <c r="S14" s="163" t="n"/>
-      <c r="T14" s="163" t="n"/>
-      <c r="U14" s="163" t="n"/>
-      <c r="V14" s="163" t="n"/>
+      <c r="S14" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T14" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U14" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V14" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -32468,10 +32644,34 @@
       <c r="R15" t="n">
         <v>6197.31</v>
       </c>
-      <c r="S15" s="163" t="n"/>
-      <c r="T15" s="163" t="n"/>
-      <c r="U15" s="163" t="n"/>
-      <c r="V15" s="163" t="n"/>
+      <c r="S15" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T15" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U15" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V15" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -32532,10 +32732,34 @@
       <c r="R16" t="n">
         <v>7236.06</v>
       </c>
-      <c r="S16" s="163" t="n"/>
-      <c r="T16" s="163" t="n"/>
-      <c r="U16" s="163" t="n"/>
-      <c r="V16" s="163" t="n"/>
+      <c r="S16" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T16" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U16" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V16" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -32596,10 +32820,34 @@
       <c r="R17" t="n">
         <v>1812.8</v>
       </c>
-      <c r="S17" s="163" t="n"/>
-      <c r="T17" s="163" t="n"/>
-      <c r="U17" s="163" t="n"/>
-      <c r="V17" s="163" t="n"/>
+      <c r="S17" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T17" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U17" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V17" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -32660,10 +32908,34 @@
       <c r="R18" t="n">
         <v>381.27</v>
       </c>
-      <c r="S18" s="163" t="n"/>
-      <c r="T18" s="163" t="n"/>
-      <c r="U18" s="163" t="n"/>
-      <c r="V18" s="163" t="n"/>
+      <c r="S18" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T18" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U18" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V18" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -32724,10 +32996,34 @@
       <c r="R19" t="n">
         <v>31058.46</v>
       </c>
-      <c r="S19" s="163" t="n"/>
-      <c r="T19" s="163" t="n"/>
-      <c r="U19" s="163" t="n"/>
-      <c r="V19" s="163" t="n"/>
+      <c r="S19" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T19" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U19" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V19" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -32788,10 +33084,34 @@
       <c r="R20" t="n">
         <v>5282.81</v>
       </c>
-      <c r="S20" s="163" t="n"/>
-      <c r="T20" s="163" t="n"/>
-      <c r="U20" s="163" t="n"/>
-      <c r="V20" s="163" t="n"/>
+      <c r="S20" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T20" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U20" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V20" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -32852,10 +33172,34 @@
       <c r="R21" t="n">
         <v>34395.51</v>
       </c>
-      <c r="S21" s="163" t="n"/>
-      <c r="T21" s="163" t="n"/>
-      <c r="U21" s="163" t="n"/>
-      <c r="V21" s="163" t="n"/>
+      <c r="S21" s="163">
+        <f>DATE(YEAR(U2),MONTH(U2),1)</f>
+        <v/>
+      </c>
+      <c r="T21" s="163">
+        <f>DATE(YEAR(V2),MONTH(V2),1)</f>
+        <v/>
+      </c>
+      <c r="U21" s="163">
+        <f>D2</f>
+        <v/>
+      </c>
+      <c r="V21" s="163">
+        <f>E2</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>U2-V2</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>IF(V2&lt;U2,"Antecipação",IF(W2&lt;-5,"Recebimento em Atraso","Recebimento Regular"))</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>IF(X2="Recebimento Regular","Recebimento Regular",IF(ABS(W2)&lt;=15,"Até 15",IF(ABS(W2)&lt;=30,"Entre 15 e 30",IF(ABS(W2)&lt;=60,"Entre 30 e 60",IF(ABS(W2)&lt;=60,"Entre 60 e 90",IF(ABS(W2)&lt;=90,"Entre 90 e 120",IF(ABS(W2)&lt;=120,"Entre 90 e 120",IF(ABS(W2)&lt;=150,"Entre 120 e 150",IF(ABS(W2)&lt;=180,"Entre 150 e 180","Superior a 180")))))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="22"/>
     <row r="23"/>

--- a/sources/ModeloNEOEdited.xlsx
+++ b/sources/ModeloNEOEdited.xlsx
@@ -33407,7 +33407,7 @@
     <row r="1">
       <c r="A1" s="277" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="K1" s="180" t="inlineStr">
